--- a/ModelBenchmarking/testing_results/avg_conf_c6431e1d-fe35-4b97-a2e3-60e47e7ba921.xlsx
+++ b/ModelBenchmarking/testing_results/avg_conf_c6431e1d-fe35-4b97-a2e3-60e47e7ba921.xlsx
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4162822250039019</v>
+        <v>0.4162822262720859</v>
       </c>
       <c r="C3" t="n">
         <v>0.1519758030772209</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2626509526196648</v>
+        <v>0.2626509657677482</v>
       </c>
     </row>
   </sheetData>
